--- a/data/trans_dic/P16A12-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A12-Edad-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para la diabetes en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1790,7 +1790,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para la diabetes en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A12-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A12-Edad-trans_dic.xlsx
@@ -719,7 +719,7 @@
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
-        <v>0.002293423004415276</v>
+        <v>0.002315402426358334</v>
       </c>
       <c r="I5" s="5" t="inlineStr"/>
       <c r="J5" s="5" t="n">
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.002208275210207986</v>
+        <v>0.00214763598505286</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -746,34 +746,34 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01143985945190231</v>
+        <v>0.01109877246881752</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01254980051876234</v>
+        <v>0.01345656394930874</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01078430162879715</v>
+        <v>0.01184267118450748</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.01890144698862314</v>
+        <v>0.01910602276966447</v>
       </c>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.01557439945409431</v>
+        <v>0.01763925987775508</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.005110976246280255</v>
+        <v>0.004877784930998917</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01240778477689668</v>
+        <v>0.01251311306648314</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.005727932483266029</v>
+        <v>0.005717271047067906</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.007365688285405785</v>
+        <v>0.008299217733142515</v>
       </c>
     </row>
     <row r="7">
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007432513857933055</v>
+        <v>0.007133599893870399</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.004917861256651328</v>
+        <v>0.004931605303476031</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.001563866142758085</v>
+        <v>0.001554667346116829</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0006523312014606683</v>
+        <v>0.0006503024795702077</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.008399935340880314</v>
+        <v>0.008310266081567029</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.00161748882393198</v>
+        <v>0.001572985846160648</v>
       </c>
       <c r="N8" s="5" t="n">
         <v>0</v>
@@ -876,40 +876,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01381026271124363</v>
+        <v>0.01283489218512771</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0310954067679624</v>
+        <v>0.03076895776508358</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01196833443756916</v>
+        <v>0.0127782037670691</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02230244343101005</v>
+        <v>0.02210395111338593</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01032695204745612</v>
+        <v>0.01113027844073661</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02560284824428085</v>
+        <v>0.0249830554818866</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01468391682266203</v>
+        <v>0.01274479158153987</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.007711428873529151</v>
+        <v>0.006899766938734954</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.008284123741995591</v>
+        <v>0.007310231617892019</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02319174961444922</v>
+        <v>0.02290435294280677</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0085364133093443</v>
+        <v>0.009143276145028328</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01150332637410637</v>
+        <v>0.01119706523285049</v>
       </c>
     </row>
     <row r="10">
@@ -968,40 +968,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.009954973984930428</v>
+        <v>0.009934085523558648</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.001504317339833635</v>
+        <v>0.001366174564378264</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.005993865356424076</v>
+        <v>0.005925566282000205</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01091201558772294</v>
+        <v>0.010724094629923</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.003131913507505925</v>
+        <v>0.003188894979250419</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.008838298127063807</v>
+        <v>0.009788773555536555</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.005485466334866284</v>
+        <v>0.005505566451668102</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.00528198833921409</v>
+        <v>0.005708491796072185</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.008096693313313245</v>
+        <v>0.008391243877968727</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.00687680429030043</v>
+        <v>0.007179267758455394</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.007245633153823453</v>
+        <v>0.007201948207306169</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.009910228448457282</v>
+        <v>0.0098453726943428</v>
       </c>
     </row>
     <row r="12">
@@ -1012,40 +1012,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02888833174473326</v>
+        <v>0.03017883872367432</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01438865641375893</v>
+        <v>0.01306250511700083</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02349706853510525</v>
+        <v>0.02326372389173151</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03273662000345211</v>
+        <v>0.03332251290813181</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01817649346031986</v>
+        <v>0.01856792393970226</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02981701070884166</v>
+        <v>0.03016224457513446</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02096925404724476</v>
+        <v>0.02138464758839614</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02044100909410894</v>
+        <v>0.01985991236670024</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02139890177296812</v>
+        <v>0.02031735387956986</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.0189581021582044</v>
+        <v>0.01888382302322151</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0189297190165381</v>
+        <v>0.01889712847258024</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02290963150502578</v>
+        <v>0.02375348266697609</v>
       </c>
     </row>
     <row r="13">
@@ -1069,7 +1069,7 @@
         <v>0.05524784463374906</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06443342714663343</v>
+        <v>0.06443342714663342</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.0333140817741805</v>
@@ -1104,40 +1104,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02914700760221144</v>
+        <v>0.02865049711254494</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02265398165971642</v>
+        <v>0.02429569866028619</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04000632898227237</v>
+        <v>0.03821263066245394</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04830908621807632</v>
+        <v>0.04552453540706879</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01967032093301926</v>
+        <v>0.01941639307020951</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02107249349580633</v>
+        <v>0.02084216259550387</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01945040453898904</v>
+        <v>0.01941256816270155</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02063973748257335</v>
+        <v>0.02034128370267166</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02860454862122718</v>
+        <v>0.02839349905856629</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02598944306770202</v>
+        <v>0.02615937330008929</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03236560181378192</v>
+        <v>0.0329506218307992</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03676744934304373</v>
+        <v>0.03630141094185255</v>
       </c>
     </row>
     <row r="15">
@@ -1148,40 +1148,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06782622627234645</v>
+        <v>0.0675289391492567</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05430251658735111</v>
+        <v>0.05621870994148563</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07721256086879234</v>
+        <v>0.07578880628332724</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08773875283376611</v>
+        <v>0.08474803120534444</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05276805344848112</v>
+        <v>0.05287416345152777</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05268100602638755</v>
+        <v>0.05336988423427132</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04995058731363686</v>
+        <v>0.04766578338326177</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0404432649867718</v>
+        <v>0.04017167464357206</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05250693216213199</v>
+        <v>0.05235949613685336</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04805844848516145</v>
+        <v>0.04970937094531144</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.05743175442294252</v>
+        <v>0.05636935570889932</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.05779686297549528</v>
+        <v>0.05775995805613088</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.1209082022152597</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.09759747602167737</v>
+        <v>0.09759747602167736</v>
       </c>
     </row>
     <row r="17">
@@ -1240,40 +1240,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09117793893901219</v>
+        <v>0.09024871574192601</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08567488195844335</v>
+        <v>0.08542104288282532</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09869806916514402</v>
+        <v>0.09656288982809362</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1067891275438476</v>
+        <v>0.1052742924625902</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07279442487589645</v>
+        <v>0.07371909114501943</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08539830680992527</v>
+        <v>0.08970767036888024</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.08920022974232987</v>
+        <v>0.08978433530219479</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05163118941778201</v>
+        <v>0.05194670318676187</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.08894504544815271</v>
+        <v>0.09009355999232874</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.09708613955304325</v>
+        <v>0.09628210974154069</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.09985888387778416</v>
+        <v>0.09931322974286251</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.08361537745873622</v>
+        <v>0.08522868616181349</v>
       </c>
     </row>
     <row r="18">
@@ -1284,40 +1284,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1541796287093728</v>
+        <v>0.1584017529929235</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1494849074300242</v>
+        <v>0.151416041679013</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1612898605273236</v>
+        <v>0.159774474018839</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1618059108181697</v>
+        <v>0.1553723193110066</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1342968955854115</v>
+        <v>0.1360361278102819</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1491307841556366</v>
+        <v>0.1488126851841895</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1509292624681877</v>
+        <v>0.1494430473250697</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.08298582083827678</v>
+        <v>0.08369782437391173</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1324232045056643</v>
+        <v>0.1365021106724666</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1380151188068359</v>
+        <v>0.1409789304054173</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1436890932165209</v>
+        <v>0.1413424195529786</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1129693014552753</v>
+        <v>0.1139731336030272</v>
       </c>
     </row>
     <row r="19">
@@ -1376,40 +1376,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1521452920308708</v>
+        <v>0.1563107193634106</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.24185672430878</v>
+        <v>0.2343555928550605</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2190199796920213</v>
+        <v>0.2223574239231416</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1691456369944461</v>
+        <v>0.169458337683914</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.169804645595201</v>
+        <v>0.168218420134838</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1979367058164886</v>
+        <v>0.1959420473896795</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1773164430789506</v>
+        <v>0.177468562207118</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1349871408486893</v>
+        <v>0.1375570856618819</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1713900372096444</v>
+        <v>0.1722437875234029</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.229593767922037</v>
+        <v>0.2295722347285746</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2100725177908859</v>
+        <v>0.2129417715414078</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1605093210459305</v>
+        <v>0.1591466647291058</v>
       </c>
     </row>
     <row r="21">
@@ -1420,40 +1420,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2401875071526328</v>
+        <v>0.2413785394425763</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3488529977148259</v>
+        <v>0.3517424721928516</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3239130938483044</v>
+        <v>0.3201504749637423</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2350232883746981</v>
+        <v>0.2355136467791676</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2527795386023625</v>
+        <v>0.2530402456660542</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2910771547498016</v>
+        <v>0.2854901279121241</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2661181375151922</v>
+        <v>0.2667250416644836</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.184564632368347</v>
+        <v>0.1874685380891318</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2308391729360707</v>
+        <v>0.2331913397113859</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2955874337284026</v>
+        <v>0.2998390305028998</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2771386119842209</v>
+        <v>0.2800354419255689</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.200778505477394</v>
+        <v>0.1994741079762394</v>
       </c>
     </row>
     <row r="22">
@@ -1512,40 +1512,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1503157680689171</v>
+        <v>0.1494203289996035</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2292621064457124</v>
+        <v>0.2314844212316873</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.282083762746032</v>
+        <v>0.2807735642436424</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2436416105065727</v>
+        <v>0.2394676078985547</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1587709371667677</v>
+        <v>0.159978764906833</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2644265317928459</v>
+        <v>0.2568289543602971</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2214265616897435</v>
+        <v>0.2163867015266006</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2619792253463791</v>
+        <v>0.2658423404823298</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1689274748421265</v>
+        <v>0.1691672529503035</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2645760232599639</v>
+        <v>0.2629643645570257</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2561489393260854</v>
+        <v>0.2543479309499539</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2627153240530162</v>
+        <v>0.2610667197528248</v>
       </c>
     </row>
     <row r="24">
@@ -1556,40 +1556,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2564008250508774</v>
+        <v>0.2557210377033777</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3503257537480869</v>
+        <v>0.3501862733807427</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3910723743171014</v>
+        <v>0.3901581648117412</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3242829188640698</v>
+        <v>0.3252656959423526</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2540197646061511</v>
+        <v>0.2538685544537645</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3589690330146111</v>
+        <v>0.3577061348423311</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3187771795630893</v>
+        <v>0.3202790021946343</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3208239908846215</v>
+        <v>0.3261365116978404</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2380779555381305</v>
+        <v>0.2393461476722587</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3376727116112112</v>
+        <v>0.3397389246713157</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3301117154841435</v>
+        <v>0.3298477601964085</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3126495727442133</v>
+        <v>0.3126572058146893</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.08095670698434509</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.08030962241378704</v>
+        <v>0.08030962241378706</v>
       </c>
     </row>
     <row r="26">
@@ -1648,40 +1648,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.04917020154681201</v>
+        <v>0.0480170571116687</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.06336607398399374</v>
+        <v>0.0638707004419605</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0749474501917021</v>
+        <v>0.07319576833460832</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.07840518520783492</v>
+        <v>0.07847424368235967</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.05309977319538539</v>
+        <v>0.05334482818254589</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.07590954776220786</v>
+        <v>0.07601294083900072</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.06843611052221663</v>
+        <v>0.06903631487112906</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.06773440672826786</v>
+        <v>0.06838473994997088</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.05226630388757596</v>
+        <v>0.0528653090353768</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.07230410076287572</v>
+        <v>0.0723479820321806</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.07432147579491016</v>
+        <v>0.07400058334447875</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.07514986108513251</v>
+        <v>0.07491228852290376</v>
       </c>
     </row>
     <row r="27">
@@ -1692,40 +1692,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.06435310264065641</v>
+        <v>0.06438621055171387</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.08326024461877378</v>
+        <v>0.08244612200288264</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0930518462122866</v>
+        <v>0.09290062123889188</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.09601834333111516</v>
+        <v>0.0955422645158346</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.06913202554855588</v>
+        <v>0.06898246061008288</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.09376575404170655</v>
+        <v>0.09487377675308131</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.08818656848614737</v>
+        <v>0.0878843147963445</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.08052817994761208</v>
+        <v>0.08143849030585887</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.06383733091707244</v>
+        <v>0.06407449286721129</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.08596331956708025</v>
+        <v>0.08590365769011724</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.0880884540616873</v>
+        <v>0.08819571754417484</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.08606286569180459</v>
+        <v>0.08566699467729803</v>
       </c>
     </row>
     <row r="28">
@@ -2010,7 +2010,7 @@
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>985</v>
+        <v>994</v>
       </c>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1949</v>
+        <v>1895</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>0</v>
@@ -2037,34 +2037,34 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5652</v>
+        <v>5484</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5686</v>
+        <v>6097</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>4524</v>
+        <v>4968</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>8115</v>
+        <v>8203</v>
       </c>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>5646</v>
+        <v>6394</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>4914</v>
+        <v>4690</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>10949</v>
+        <v>11042</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>4670</v>
+        <v>4661</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>5674</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="8">
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5100</v>
+        <v>4895</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
@@ -2182,22 +2182,22 @@
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2996</v>
+        <v>3004</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="J10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>10882</v>
+        <v>10766</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1867</v>
+        <v>1815</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0</v>
@@ -2211,40 +2211,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>10157</v>
+        <v>9440</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>21339</v>
+        <v>21115</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>7067</v>
+        <v>7545</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>10636</v>
+        <v>10541</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>6459</v>
+        <v>6962</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>15598</v>
+        <v>15220</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>8275</v>
+        <v>7182</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>3864</v>
+        <v>3457</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>11275</v>
+        <v>9949</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>30044</v>
+        <v>29671</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>9851</v>
+        <v>10552</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>11250</v>
+        <v>10950</v>
       </c>
     </row>
     <row r="12">
@@ -2347,40 +2347,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6348</v>
+        <v>6334</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1023</v>
+        <v>929</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4010</v>
+        <v>3965</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>6775</v>
+        <v>6658</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2160</v>
+        <v>2200</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6239</v>
+        <v>6910</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3628</v>
+        <v>3641</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3286</v>
+        <v>3551</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>10748</v>
+        <v>11138</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>9531</v>
+        <v>9950</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>9640</v>
+        <v>9582</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>12318</v>
+        <v>12238</v>
       </c>
     </row>
     <row r="15">
@@ -2391,40 +2391,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18421</v>
+        <v>19244</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9785</v>
+        <v>8883</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15722</v>
+        <v>15566</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>20324</v>
+        <v>20688</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>12537</v>
+        <v>12807</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>21049</v>
+        <v>21293</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>13869</v>
+        <v>14144</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>12717</v>
+        <v>12356</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>28405</v>
+        <v>26969</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>26276</v>
+        <v>26173</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>25186</v>
+        <v>25142</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>28476</v>
+        <v>29525</v>
       </c>
     </row>
     <row r="16">
@@ -2527,40 +2527,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>15132</v>
+        <v>14874</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>13924</v>
+        <v>14933</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>25846</v>
+        <v>24687</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>33846</v>
+        <v>31895</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>10143</v>
+        <v>10012</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>12940</v>
+        <v>12799</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>12625</v>
+        <v>12600</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>15209</v>
+        <v>14989</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>29600</v>
+        <v>29381</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>31933</v>
+        <v>32142</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>41918</v>
+        <v>42675</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>52853</v>
+        <v>52183</v>
       </c>
     </row>
     <row r="19">
@@ -2571,40 +2571,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>35212</v>
+        <v>35057</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>33375</v>
+        <v>34553</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>49883</v>
+        <v>48963</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>61471</v>
+        <v>59376</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>27209</v>
+        <v>27264</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>32350</v>
+        <v>32773</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>32422</v>
+        <v>30939</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>29802</v>
+        <v>29602</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>54334</v>
+        <v>54181</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>59049</v>
+        <v>61077</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>74381</v>
+        <v>73005</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>83083</v>
+        <v>83030</v>
       </c>
     </row>
     <row r="20">
@@ -2707,40 +2707,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>35259</v>
+        <v>34900</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>36698</v>
+        <v>36590</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>47170</v>
+        <v>46149</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>64966</v>
+        <v>64045</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>29408</v>
+        <v>29781</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>38241</v>
+        <v>40171</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>44319</v>
+        <v>44609</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>31363</v>
+        <v>31555</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>70328</v>
+        <v>71237</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>85061</v>
+        <v>84357</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>97339</v>
+        <v>96807</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>101660</v>
+        <v>103622</v>
       </c>
     </row>
     <row r="23">
@@ -2751,40 +2751,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>59623</v>
+        <v>61256</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>64031</v>
+        <v>64858</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>77083</v>
+        <v>76359</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>98436</v>
+        <v>94522</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>54254</v>
+        <v>54957</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>66781</v>
+        <v>66638</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>74989</v>
+        <v>74251</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>50410</v>
+        <v>50842</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>104706</v>
+        <v>107932</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>120921</v>
+        <v>123518</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>140063</v>
+        <v>137776</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>137349</v>
+        <v>138569</v>
       </c>
     </row>
     <row r="24">
@@ -2887,40 +2887,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>44515</v>
+        <v>45734</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>74924</v>
+        <v>72600</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>73225</v>
+        <v>74341</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>68856</v>
+        <v>68983</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>58232</v>
+        <v>57688</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>70069</v>
+        <v>69363</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>66983</v>
+        <v>67041</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>59282</v>
+        <v>60410</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>108921</v>
+        <v>109464</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>152400</v>
+        <v>152386</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>149591</v>
+        <v>151634</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>135830</v>
+        <v>134677</v>
       </c>
     </row>
     <row r="27">
@@ -2931,40 +2931,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>70275</v>
+        <v>70623</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>108070</v>
+        <v>108965</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>108294</v>
+        <v>107036</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>95673</v>
+        <v>95873</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>86687</v>
+        <v>86776</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>103040</v>
+        <v>101062</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>100529</v>
+        <v>100759</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>81055</v>
+        <v>82330</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>146702</v>
+        <v>148197</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>196206</v>
+        <v>199028</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>197348</v>
+        <v>199411</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>169908</v>
+        <v>168804</v>
       </c>
     </row>
     <row r="28">
@@ -3067,40 +3067,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>31549</v>
+        <v>31361</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>57095</v>
+        <v>57648</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>72495</v>
+        <v>72158</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>75577</v>
+        <v>74282</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>53015</v>
+        <v>53418</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>102268</v>
+        <v>99329</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>88608</v>
+        <v>86591</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>121404</v>
+        <v>123194</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>91861</v>
+        <v>91992</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>168215</v>
+        <v>167190</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>168333</v>
+        <v>167149</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>203239</v>
+        <v>201963</v>
       </c>
     </row>
     <row r="31">
@@ -3111,40 +3111,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>53814</v>
+        <v>53671</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>87244</v>
+        <v>87209</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>100505</v>
+        <v>100270</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>100592</v>
+        <v>100897</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>84819</v>
+        <v>84769</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>138832</v>
+        <v>138344</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>127565</v>
+        <v>128166</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>148673</v>
+        <v>151135</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>129465</v>
+        <v>130154</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>214689</v>
+        <v>216002</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>216939</v>
+        <v>216765</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>241868</v>
+        <v>241874</v>
       </c>
     </row>
     <row r="32">
@@ -3247,40 +3247,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>161058</v>
+        <v>157281</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>216787</v>
+        <v>218513</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>254398</v>
+        <v>248452</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>276909</v>
+        <v>277153</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>179435</v>
+        <v>180263</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>269260</v>
+        <v>269626</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>242575</v>
+        <v>244702</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>252828</v>
+        <v>255256</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>347818</v>
+        <v>351804</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>503836</v>
+        <v>504142</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>515709</v>
+        <v>513482</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>545920</v>
+        <v>544194</v>
       </c>
     </row>
     <row r="35">
@@ -3291,40 +3291,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>210790</v>
+        <v>210899</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>284848</v>
+        <v>282063</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>315851</v>
+        <v>315337</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>339115</v>
+        <v>337434</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>233611</v>
+        <v>233105</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>332597</v>
+        <v>336528</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>312581</v>
+        <v>311510</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>300583</v>
+        <v>303981</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>424820</v>
+        <v>426398</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>599017</v>
+        <v>598602</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>611236</v>
+        <v>611981</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>625197</v>
+        <v>622321</v>
       </c>
     </row>
     <row r="36">
